--- a/update-n&s/ig/CodeSystem-CSEventTypeData.xlsx
+++ b/update-n&s/ig/CodeSystem-CSEventTypeData.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-19T07:46:46+00:00</t>
+    <t>2025-05-22T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
